--- a/medicine/Premiers secours et secourisme/Escadron_bleu/Escadron_bleu.xlsx
+++ b/medicine/Premiers secours et secourisme/Escadron_bleu/Escadron_bleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Escadron bleu est le surnom donné à l'unité mobile n°1 de la Croix-Rouge française[1], composé de 11 jeunes femmes volontaires, infirmières et ambulancières âgées de 22 à 29 ans, chargées en 1945 de participer au retour en France des prisonniers de guerre blessés, des travailleurs requis et des survivants des camps de concentration. Le surnom « Escadron bleu » a été donné au groupe en raison de la couleur de ses uniformes offerts par l’armée américaine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Escadron bleu est le surnom donné à l'unité mobile n°1 de la Croix-Rouge française, composé de 11 jeunes femmes volontaires, infirmières et ambulancières âgées de 22 à 29 ans, chargées en 1945 de participer au retour en France des prisonniers de guerre blessés, des travailleurs requis et des survivants des camps de concentration. Le surnom « Escadron bleu » a été donné au groupe en raison de la couleur de ses uniformes offerts par l’armée américaine.
 L'histoire de l'Escadron bleu est étroitement rattachée à celle de Madeleine Pauliac, médecin-lieutenant, envoyée par le général de Gaulle à Varsovie en 1945 à la tête du rapatriement sanitaire des blessés français et nommée médecin-chef de l'hôpital français de Varsovie. 
 Pour se déplacer : cinq ambulances Austin offertes par le roi George VI d'Angleterre. À bord de chaque ambulance, un binôme conductrice-infirmière. 
 </t>
@@ -513,7 +525,9 @@
           <t>Composition de l'Escadron bleu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Violette Guillot, chef d'unité de cinq binômes conductrice/infirmière :
 Janine Robert / Simone Saint-Olive,
@@ -548,9 +562,11 @@
           <t>Mission en Allemagne (25 avril - 24 juillet 1945)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'unité mobile n°1 de la Croix-Rouge a été créée le 13 avril 1945 par un arrêté du ministère des Prisonniers, Déportés et Réfugiés (PDR)[2] pour participer au retour des Français libérés des camps de concentration et camps de prisonniers.  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'unité mobile n°1 de la Croix-Rouge a été créée le 13 avril 1945 par un arrêté du ministère des Prisonniers, Déportés et Réfugiés (PDR) pour participer au retour des Français libérés des camps de concentration et camps de prisonniers.  
 Le 29 avril 1945, l'Escadron bleu est présent à l'ouverture des portes de Dachau. Depuis sa mise en service, plus de 200 000 prisonniers y ont été internés, en majorité des opposants politiques. Des dizaines de milliers y sont morts de faim, d’épuisement ou emportés par une épidémie de typhus. À l’approche des Alliés, les nazis ont commencé à assassiner les survivants, avant de s’enfuir. Le spectacle est insoutenable. Les ambulances ne peuvent transporter que 4 malades couchés ou 10 assis. Commence alors un ballet incessant d'allers et retours entre Dachau et la France. La mission d'évacuation va durer plus d'un mois. Puis ce sera le camp de Buchenwald. 
 </t>
         </is>
@@ -580,10 +596,12 @@
           <t>Mission en Pologne (27 juillet - 11 novembre 1945)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'unité part le 23 juillet de Constance, en Allemagne, à destination de Varsovie où l'attend Madeleine Pauliac.
-Au cours des mois suivants, l'Escadron bleu va réaliser plus de 200 missions et parcourir plus de 40 000 kilomètres[3] sur les routes dévastées de Pologne.
+Au cours des mois suivants, l'Escadron bleu va réaliser plus de 200 missions et parcourir plus de 40 000 kilomètres sur les routes dévastées de Pologne.
 </t>
         </is>
       </c>
@@ -613,6 +631,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
